--- a/03.crawler/01.RockAuto/file/input.xlsx
+++ b/03.crawler/01.RockAuto/file/input.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>https://www.rockauto.com/en/parts/melling,timing+chain+&amp;+component+kit,5756</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/dorman,hood+release+cable,1360</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -455,7 +458,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -468,6 +471,36 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -597,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,34 +642,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +774,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1307,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1276,7 +1315,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.6923076923077" style="2" customWidth="1"/>
     <col min="2" max="2" width="100.692307692308" customWidth="1"/>
@@ -1290,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="17.5" customHeight="1" spans="1:2">
+    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1298,6 +1337,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" ht="17.5" customHeight="1" spans="1:2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03.crawler/01.RockAuto/file/input.xlsx
+++ b/03.crawler/01.RockAuto/file/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14140"/>
+    <workbookView windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -35,10 +35,22 @@
     <t>Url</t>
   </si>
   <si>
-    <t>https://www.rockauto.com/en/parts/melling,timing+chain+&amp;+component+kit,5756</t>
+    <t>https://www.rockauto.com/en/parts/MEVOTECH,Sway%20Bar%20Link,7580</t>
   </si>
   <si>
-    <t>https://www.rockauto.com/en/parts/dorman,hood+release+cable,1360</t>
+    <t>https://www.rockauto.com/en/parts/MOOG,Sway%20Bar%20Link,7580</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/MEVOTECH,Tie%20Rod%20End,7428</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/MOOG,Tie%20Rod%20End,7428</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/MEVOTECH,Ball%20Joint,10070</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/MOOG,Ball%20Joint,10070</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -457,7 +469,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -468,6 +482,21 @@
         <color auto="1"/>
       </left>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -477,15 +506,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -630,7 +672,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,34 +684,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,13 +815,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,15 +1355,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.6923076923077" style="2" customWidth="1"/>
     <col min="2" max="2" width="100.692307692308" customWidth="1"/>
@@ -1345,6 +1393,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="17.55" spans="1:2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03.crawler/01.RockAuto/file/input.xlsx
+++ b/03.crawler/01.RockAuto/file/input.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14040"/>
+    <workbookView windowWidth="29480" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
   </si>
@@ -35,22 +38,10 @@
     <t>Url</t>
   </si>
   <si>
-    <t>https://www.rockauto.com/en/parts/MEVOTECH,Sway%20Bar%20Link,7580</t>
+    <t>https://www.rockauto.com/en/parts/melling,timing+chain+&amp;+component+kit,5756</t>
   </si>
   <si>
-    <t>https://www.rockauto.com/en/parts/MOOG,Sway%20Bar%20Link,7580</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/MEVOTECH,Tie%20Rod%20End,7428</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/MOOG,Tie%20Rod%20End,7428</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/MEVOTECH,Ball%20Joint,10070</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/MOOG,Ball%20Joint,10070</t>
+    <t>https://www.rockauto.com/en/parts/motorcraft,fuel+tank+cap,5900</t>
   </si>
 </sst>
 </file>
@@ -72,15 +63,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -428,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -440,24 +432,28 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -469,7 +465,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -484,7 +480,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -499,35 +495,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -672,7 +642,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,34 +654,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,19 +785,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,17 +1319,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.6923076923077" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.69230769230769" style="2" customWidth="1"/>
     <col min="2" max="2" width="100.692307692308" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1377,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1385,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="17.5" customHeight="1" spans="1:2">
+    <row r="3" ht="17.55" spans="1:2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1393,39 +1357,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="17.55" spans="1:2">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B3" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/03.crawler/01.RockAuto/file/input.xlsx
+++ b/03.crawler/01.RockAuto/file/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29480" windowHeight="14140"/>
+    <workbookView windowWidth="21640" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>https://www.rockauto.com/en/parts/melling,timing+chain+&amp;+component+kit,5756</t>
   </si>
   <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,fuel+tank+cap,5900</t>
+    <t>https://www.rockauto.com/en/parts/skp,a/c+compressor+bypass+pulley,10329</t>
   </si>
 </sst>
 </file>
